--- a/diary/2017-4-25(L).xlsx
+++ b/diary/2017-4-25(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>P</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>肌力訓練</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黃瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力麵包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +476,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -634,6 +642,28 @@
         <v>38</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
@@ -645,23 +675,23 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>196.95000000000002</v>
+        <v>200.85000000000002</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>63.899999999999991</v>
+        <v>94.399999999999991</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>103.16999999999999</v>
+        <v>120.76999999999998</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1971.9299999999998</v>
+        <v>2267.9299999999998</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F2:F17)</f>
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
